--- a/ToolCRM/UploadFile/workingTime/working_time_20251026.xlsx
+++ b/ToolCRM/UploadFile/workingTime/working_time_20251026.xlsx
@@ -165,10 +165,10 @@
         <v>5</v>
       </c>
       <c r="B2" s="1">
-        <v>45956.34925925926</v>
+        <v>45956.35496527778</v>
       </c>
       <c r="C2" s="1">
-        <v>45956.72930555556</v>
+        <v>45956.73232638889</v>
       </c>
       <c r="D2" s="0">
         <v>9.1</v>
@@ -182,13 +182,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="1">
-        <v>45956.35103009259</v>
+        <v>45956.348807870374</v>
       </c>
       <c r="C3" s="1">
-        <v>45956.72797453704</v>
+        <v>45956.73061342593</v>
       </c>
       <c r="D3" s="0">
-        <v>9</v>
+        <v>9.2</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>6</v>
@@ -199,13 +199,13 @@
         <v>8</v>
       </c>
       <c r="B4" s="1">
-        <v>45956.35197916667</v>
+        <v>45956.352326388886</v>
       </c>
       <c r="C4" s="1">
-        <v>45956.73153935185</v>
+        <v>45956.72819444445</v>
       </c>
       <c r="D4" s="0">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>6</v>
@@ -216,13 +216,13 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>45956.35486111111</v>
+        <v>45956.355416666665</v>
       </c>
       <c r="C5" s="1">
-        <v>45956.72976851852</v>
+        <v>45956.728217592594</v>
       </c>
       <c r="D5" s="0">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>6</v>
@@ -233,10 +233,10 @@
         <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>45956.35239583333</v>
+        <v>45956.35269675926</v>
       </c>
       <c r="C6" s="1">
-        <v>45956.73090277778</v>
+        <v>45956.7322337963</v>
       </c>
       <c r="D6" s="0">
         <v>9.1</v>
@@ -250,10 +250,10 @@
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>45956.35518518519</v>
+        <v>45956.35519675926</v>
       </c>
       <c r="C7" s="1">
-        <v>45956.7284375</v>
+        <v>45956.7315625</v>
       </c>
       <c r="D7" s="0">
         <v>9</v>
@@ -267,13 +267,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>45956.35472222222</v>
+        <v>45956.351851851854</v>
       </c>
       <c r="C8" s="1">
-        <v>45956.727488425924</v>
+        <v>45956.732465277775</v>
       </c>
       <c r="D8" s="0">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="E8" s="0" t="s">
         <v>6</v>
@@ -284,10 +284,10 @@
         <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>45956.35318287037</v>
+        <v>45956.35335648148</v>
       </c>
       <c r="C9" s="1">
-        <v>45956.73200231481</v>
+        <v>45956.73234953704</v>
       </c>
       <c r="D9" s="0">
         <v>9.1</v>
@@ -301,13 +301,13 @@
         <v>14</v>
       </c>
       <c r="B10" s="1">
-        <v>45956.34835648148</v>
+        <v>45956.351747685185</v>
       </c>
       <c r="C10" s="1">
-        <v>45956.730266203704</v>
+        <v>45956.73025462963</v>
       </c>
       <c r="D10" s="0">
-        <v>9.2</v>
+        <v>9.1</v>
       </c>
       <c r="E10" s="0" t="s">
         <v>6</v>
@@ -318,13 +318,13 @@
         <v>15</v>
       </c>
       <c r="B11" s="1">
-        <v>45956.355219907404</v>
+        <v>45956.354837962965</v>
       </c>
       <c r="C11" s="1">
-        <v>45956.729837962965</v>
+        <v>45956.73243055555</v>
       </c>
       <c r="D11" s="0">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>6</v>
@@ -335,13 +335,13 @@
         <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>45956.351643518516</v>
+        <v>45956.35525462963</v>
       </c>
       <c r="C12" s="1">
         <v>45956.73059027778</v>
       </c>
       <c r="D12" s="0">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>6</v>
@@ -352,13 +352,13 @@
         <v>17</v>
       </c>
       <c r="B13" s="1">
-        <v>45956.35494212963</v>
+        <v>45956.34993055555</v>
       </c>
       <c r="C13" s="1">
-        <v>45956.73079861111</v>
+        <v>45956.731527777774</v>
       </c>
       <c r="D13" s="0">
-        <v>9</v>
+        <v>9.2</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>6</v>
@@ -369,10 +369,10 @@
         <v>18</v>
       </c>
       <c r="B14" s="1">
-        <v>45956.35371527778</v>
+        <v>45956.351435185185</v>
       </c>
       <c r="C14" s="1">
-        <v>45956.73116898148</v>
+        <v>45956.72856481482</v>
       </c>
       <c r="D14" s="0">
         <v>9.1</v>
@@ -386,13 +386,13 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>45956.35155092592</v>
+        <v>45956.349710648145</v>
       </c>
       <c r="C15" s="1">
-        <v>45956.72725694445</v>
+        <v>45956.73253472222</v>
       </c>
       <c r="D15" s="0">
-        <v>9</v>
+        <v>9.2</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>6</v>
@@ -403,10 +403,10 @@
         <v>20</v>
       </c>
       <c r="B16" s="1">
-        <v>45956.348287037035</v>
+        <v>45956.35326388889</v>
       </c>
       <c r="C16" s="1">
-        <v>45956.7275</v>
+        <v>45956.73042824074</v>
       </c>
       <c r="D16" s="0">
         <v>9.1</v>
@@ -420,13 +420,13 @@
         <v>21</v>
       </c>
       <c r="B17" s="1">
-        <v>45956.35202546296</v>
+        <v>45956.34761574074</v>
       </c>
       <c r="C17" s="1">
-        <v>45956.72791666666</v>
+        <v>45956.72775462963</v>
       </c>
       <c r="D17" s="0">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>6</v>
@@ -437,13 +437,13 @@
         <v>22</v>
       </c>
       <c r="B18" s="1">
-        <v>45956.35077546296</v>
+        <v>45956.35318287037</v>
       </c>
       <c r="C18" s="1">
-        <v>45956.729166666664</v>
+        <v>45956.72862268519</v>
       </c>
       <c r="D18" s="0">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>6</v>
